--- a/src/main/resources/assets/accessories/akcesoria.xlsx
+++ b/src/main/resources/assets/accessories/akcesoria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arkadiusz Koszela\Desktop\cenniki\akcesoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arkadiusz Koszela\Desktop\nowoczesne-bud\src\main\resources\assets\accessories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0119C777-8A8D-4923-9805-791944C8D977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F56F79-B0B8-4FFC-B061-6035D2FE65A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>grzebień okapu</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>skonto</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1023,7 +1035,7 @@
     <col min="1" max="1" width="46.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1045,8 +1057,11 @@
       <c r="G1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1068,8 +1083,11 @@
       <c r="G2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1109,11 @@
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1114,8 +1135,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1137,8 +1161,11 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1187,11 @@
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1183,8 +1213,11 @@
       <c r="G7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1206,8 +1239,11 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1229,8 +1265,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1252,8 +1291,11 @@
       <c r="G10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1275,8 +1317,11 @@
       <c r="G11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1298,8 +1343,11 @@
       <c r="G12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1321,8 +1369,11 @@
       <c r="G13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1344,8 +1395,11 @@
       <c r="G14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1367,8 +1421,11 @@
       <c r="G15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="G16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1413,8 +1473,11 @@
       <c r="G17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1436,8 +1499,11 @@
       <c r="G18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1459,8 +1525,11 @@
       <c r="G19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1482,8 +1551,11 @@
       <c r="G20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1505,8 +1577,11 @@
       <c r="G21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1528,8 +1603,11 @@
       <c r="G22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1629,11 @@
       <c r="G23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1574,8 +1655,11 @@
       <c r="G24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1597,8 +1681,11 @@
       <c r="G25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1707,11 @@
       <c r="G26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1643,8 +1733,11 @@
       <c r="G27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1666,8 +1759,11 @@
       <c r="G28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1688,6 +1784,9 @@
       </c>
       <c r="G29">
         <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
